--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>S1</t>
   </si>
@@ -36,18 +36,6 @@
   </si>
   <si>
     <t>K2_Description</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>E_Description</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>V_Description</t>
   </si>
   <si>
     <t>B</t>
@@ -122,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -132,12 +120,10 @@
     <col min="2" max="2" width="14.49609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="4.6171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="4.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="2.82421875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.05078125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.890625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="2.890625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.4296875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="4.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="4.4296875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="4.4296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -204,83 +190,55 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="1">
+    <row r="11">
+      <c r="A11" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B13" t="s" s="1">
+      <c r="B11" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="C13" t="s" s="1">
+      <c r="C11" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="1">
+      <c r="D11" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="E13" t="s" s="1">
+      <c r="E11" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="F13" t="s" s="1">
+      <c r="F11" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="G13" t="s" s="1">
+      <c r="G11" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="H13" t="s" s="1">
+      <c r="H11" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="I13" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>1.0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B12" t="n">
         <v>2.0</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C12" t="n">
         <v>3.0</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D12" t="n">
         <v>4.0</v>
       </c>
-      <c r="E14" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="E12" t="n">
         <v>7.0</v>
       </c>
-      <c r="H14" t="n">
+      <c r="F12" t="n">
         <v>8.0</v>
       </c>
-      <c r="I14" t="n">
+      <c r="G12" t="n">
         <v>9.0</v>
       </c>
-      <c r="J14" t="n">
+      <c r="H12" t="n">
         <v>10.0</v>
       </c>
     </row>
